--- a/Code/Results/Cases/Case_0_163/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_163/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001496346659178</v>
+        <v>1.044767888252353</v>
       </c>
       <c r="D2">
-        <v>1.014519842784974</v>
+        <v>1.054120968337501</v>
       </c>
       <c r="E2">
-        <v>1.007503379139649</v>
+        <v>1.04257931755384</v>
       </c>
       <c r="F2">
-        <v>1.016193025281932</v>
+        <v>1.061064280785392</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047990471890619</v>
+        <v>1.037446097882198</v>
       </c>
       <c r="J2">
-        <v>1.023632394182647</v>
+        <v>1.049831207851448</v>
       </c>
       <c r="K2">
-        <v>1.025780532483496</v>
+        <v>1.056865052911502</v>
       </c>
       <c r="L2">
-        <v>1.018859160442731</v>
+        <v>1.045355606286391</v>
       </c>
       <c r="M2">
-        <v>1.027431282537263</v>
+        <v>1.063789357252356</v>
       </c>
       <c r="N2">
-        <v>1.011192713359812</v>
+        <v>1.020393081036093</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008470899421231</v>
+        <v>1.046151503999267</v>
       </c>
       <c r="D3">
-        <v>1.021089942698198</v>
+        <v>1.055478553076081</v>
       </c>
       <c r="E3">
-        <v>1.013257594818008</v>
+        <v>1.043767602474577</v>
       </c>
       <c r="F3">
-        <v>1.023391868448653</v>
+        <v>1.062572484014418</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050084597012518</v>
+        <v>1.037736802806428</v>
       </c>
       <c r="J3">
-        <v>1.028733273010393</v>
+        <v>1.05086006696713</v>
       </c>
       <c r="K3">
-        <v>1.031459901945322</v>
+        <v>1.058034426019085</v>
       </c>
       <c r="L3">
-        <v>1.023723606625411</v>
+        <v>1.046353763177557</v>
       </c>
       <c r="M3">
-        <v>1.033733945011989</v>
+        <v>1.065110360046207</v>
       </c>
       <c r="N3">
-        <v>1.012941118629952</v>
+        <v>1.020740899390178</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012850728754065</v>
+        <v>1.047045332084307</v>
       </c>
       <c r="D4">
-        <v>1.025221068278324</v>
+        <v>1.056355873264885</v>
       </c>
       <c r="E4">
-        <v>1.016877565158666</v>
+        <v>1.044535552590347</v>
       </c>
       <c r="F4">
-        <v>1.027920306058623</v>
+        <v>1.063547509923694</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051381133268461</v>
+        <v>1.03792229435905</v>
       </c>
       <c r="J4">
-        <v>1.031931327612247</v>
+        <v>1.051523908247096</v>
       </c>
       <c r="K4">
-        <v>1.035024336101699</v>
+        <v>1.058789427034369</v>
       </c>
       <c r="L4">
-        <v>1.026776472509365</v>
+        <v>1.046998121678641</v>
       </c>
       <c r="M4">
-        <v>1.037693042772082</v>
+        <v>1.065963749451744</v>
       </c>
       <c r="N4">
-        <v>1.01403669074596</v>
+        <v>1.020965153400273</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014661825304785</v>
+        <v>1.0474207526779</v>
       </c>
       <c r="D5">
-        <v>1.026930534790656</v>
+        <v>1.056724433694723</v>
       </c>
       <c r="E5">
-        <v>1.018375925195829</v>
+        <v>1.044858175495398</v>
       </c>
       <c r="F5">
-        <v>1.029794681455415</v>
+        <v>1.063957205358897</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051912744574889</v>
+        <v>1.037999650508022</v>
       </c>
       <c r="J5">
-        <v>1.033252454057896</v>
+        <v>1.051802536453063</v>
       </c>
       <c r="K5">
-        <v>1.036497710966413</v>
+        <v>1.059106436224544</v>
       </c>
       <c r="L5">
-        <v>1.028038344502147</v>
+        <v>1.047268650847432</v>
       </c>
       <c r="M5">
-        <v>1.039330403798292</v>
+        <v>1.066322187288242</v>
       </c>
       <c r="N5">
-        <v>1.014489115440317</v>
+        <v>1.021059237722066</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014964193225219</v>
+        <v>1.047483767397329</v>
       </c>
       <c r="D6">
-        <v>1.027216004944095</v>
+        <v>1.056786301220221</v>
       </c>
       <c r="E6">
-        <v>1.018626165074539</v>
+        <v>1.044912332321571</v>
       </c>
       <c r="F6">
-        <v>1.030107720550343</v>
+        <v>1.064025983144893</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052001230841612</v>
+        <v>1.038012602361941</v>
       </c>
       <c r="J6">
-        <v>1.033472942138955</v>
+        <v>1.051849293044342</v>
       </c>
       <c r="K6">
-        <v>1.036743661411795</v>
+        <v>1.059159640534407</v>
       </c>
       <c r="L6">
-        <v>1.028248985733621</v>
+        <v>1.047314052932614</v>
       </c>
       <c r="M6">
-        <v>1.039603778905007</v>
+        <v>1.066382351547833</v>
       </c>
       <c r="N6">
-        <v>1.014564612649742</v>
+        <v>1.021075023668723</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01287504517229</v>
+        <v>1.047050349820176</v>
       </c>
       <c r="D7">
-        <v>1.02524401545393</v>
+        <v>1.056360799022344</v>
       </c>
       <c r="E7">
-        <v>1.016897676947597</v>
+        <v>1.044539864365936</v>
       </c>
       <c r="F7">
-        <v>1.027945464888107</v>
+        <v>1.063552985094298</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051388288845077</v>
+        <v>1.037923330447997</v>
       </c>
       <c r="J7">
-        <v>1.031949070725386</v>
+        <v>1.051527633056672</v>
       </c>
       <c r="K7">
-        <v>1.035044120393669</v>
+        <v>1.058793664466239</v>
       </c>
       <c r="L7">
-        <v>1.026793416962154</v>
+        <v>1.047001737909245</v>
       </c>
       <c r="M7">
-        <v>1.037715025663594</v>
+        <v>1.065968540194464</v>
       </c>
       <c r="N7">
-        <v>1.014042767590317</v>
+        <v>1.020966411312659</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003882071041794</v>
+        <v>1.045235794213956</v>
       </c>
       <c r="D8">
-        <v>1.016766068958924</v>
+        <v>1.054580007047942</v>
       </c>
       <c r="E8">
-        <v>1.009470253005588</v>
+        <v>1.042981103082239</v>
       </c>
       <c r="F8">
-        <v>1.018653811277232</v>
+        <v>1.06157417134279</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048710652316692</v>
+        <v>1.037544884995931</v>
       </c>
       <c r="J8">
-        <v>1.02537825887793</v>
+        <v>1.050179311327046</v>
       </c>
       <c r="K8">
-        <v>1.027723623185599</v>
+        <v>1.057260594817613</v>
       </c>
       <c r="L8">
-        <v>1.020523453727933</v>
+        <v>1.045693254181241</v>
       </c>
       <c r="M8">
-        <v>1.029586896834815</v>
+        <v>1.064236086786222</v>
       </c>
       <c r="N8">
-        <v>1.011791256317802</v>
+        <v>1.020510795911273</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9869310011474679</v>
+        <v>1.042026847120366</v>
       </c>
       <c r="D9">
-        <v>1.000831601398035</v>
+        <v>1.051433157993148</v>
       </c>
       <c r="E9">
-        <v>0.9955270523563291</v>
+        <v>1.040226911068205</v>
       </c>
       <c r="F9">
-        <v>1.001204562925385</v>
+        <v>1.05808022916023</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043516787102196</v>
+        <v>1.036857936874992</v>
       </c>
       <c r="J9">
-        <v>1.012953853030987</v>
+        <v>1.047788666714661</v>
       </c>
       <c r="K9">
-        <v>1.013911200842766</v>
+        <v>1.054546199300147</v>
       </c>
       <c r="L9">
-        <v>1.008693119288917</v>
+        <v>1.043375761493396</v>
       </c>
       <c r="M9">
-        <v>1.014278127120583</v>
+        <v>1.061172421692568</v>
       </c>
       <c r="N9">
-        <v>1.007529671490625</v>
+        <v>1.019701698169574</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9747553114410159</v>
+        <v>1.03987947584111</v>
       </c>
       <c r="D10">
-        <v>0.9894220385936281</v>
+        <v>1.049328976094148</v>
       </c>
       <c r="E10">
-        <v>0.9855575465389343</v>
+        <v>1.038385512790063</v>
       </c>
       <c r="F10">
-        <v>0.9887181721148054</v>
+        <v>1.055745846531588</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039691404767558</v>
+        <v>1.036386386563624</v>
       </c>
       <c r="J10">
-        <v>1.004007606165744</v>
+        <v>1.046184741939964</v>
       </c>
       <c r="K10">
-        <v>1.003984944497115</v>
+        <v>1.052727618134152</v>
       </c>
       <c r="L10">
-        <v>1.000192553714494</v>
+        <v>1.041822609804244</v>
       </c>
       <c r="M10">
-        <v>1.003294155556254</v>
+        <v>1.059122347887987</v>
       </c>
       <c r="N10">
-        <v>1.004459139261116</v>
+        <v>1.019158017134528</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9692409223674251</v>
+        <v>1.038947643925342</v>
       </c>
       <c r="D11">
-        <v>0.9842643697897114</v>
+        <v>1.048416279463728</v>
       </c>
       <c r="E11">
-        <v>0.9810549579175818</v>
+        <v>1.037586858709111</v>
       </c>
       <c r="F11">
-        <v>0.9830750304806505</v>
+        <v>1.054733743433724</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037937682574094</v>
+        <v>1.036178958232003</v>
       </c>
       <c r="J11">
-        <v>0.999951763065407</v>
+        <v>1.045487756134126</v>
       </c>
       <c r="K11">
-        <v>0.9994892659442671</v>
+        <v>1.051937955977995</v>
       </c>
       <c r="L11">
-        <v>0.9963432175775502</v>
+        <v>1.041148089466714</v>
       </c>
       <c r="M11">
-        <v>0.9983233444280906</v>
+        <v>1.058232759494989</v>
       </c>
       <c r="N11">
-        <v>1.00306686744373</v>
+        <v>1.018921562530947</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9671528277520144</v>
+        <v>1.038601211549582</v>
       </c>
       <c r="D12">
-        <v>0.9823129315550677</v>
+        <v>1.048077020768049</v>
       </c>
       <c r="E12">
-        <v>0.9793520595723973</v>
+        <v>1.037290000114343</v>
       </c>
       <c r="F12">
-        <v>0.9809400536519994</v>
+        <v>1.054357600721744</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037270549368108</v>
+        <v>1.036101420953783</v>
       </c>
       <c r="J12">
-        <v>0.9984154635148569</v>
+        <v>1.045228487463503</v>
       </c>
       <c r="K12">
-        <v>0.9977870181799671</v>
+        <v>1.051644303333829</v>
       </c>
       <c r="L12">
-        <v>0.9948858289070778</v>
+        <v>1.040897238048394</v>
       </c>
       <c r="M12">
-        <v>0.9964417545906521</v>
+        <v>1.057902035885969</v>
       </c>
       <c r="N12">
-        <v>1.002539481881108</v>
+        <v>1.018833575270203</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9676025920581753</v>
+        <v>1.038675536546231</v>
       </c>
       <c r="D13">
-        <v>0.9827331875244234</v>
+        <v>1.048149803987537</v>
       </c>
       <c r="E13">
-        <v>0.9797187585771028</v>
+        <v>1.037353686555459</v>
       </c>
       <c r="F13">
-        <v>0.9813998303943214</v>
+        <v>1.054438293893438</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037414382451515</v>
+        <v>1.036118075127798</v>
       </c>
       <c r="J13">
-        <v>0.998746394920686</v>
+        <v>1.045284118621626</v>
       </c>
       <c r="K13">
-        <v>0.9981536668310095</v>
+        <v>1.051707308163953</v>
       </c>
       <c r="L13">
-        <v>0.9951997308448507</v>
+        <v>1.040951060386518</v>
       </c>
       <c r="M13">
-        <v>0.9968470069383251</v>
+        <v>1.057972990489985</v>
       </c>
       <c r="N13">
-        <v>1.002653085157801</v>
+        <v>1.018852455990273</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9690691531405877</v>
+        <v>1.038919014052146</v>
       </c>
       <c r="D14">
-        <v>0.9841038093433682</v>
+        <v>1.048388241218606</v>
       </c>
       <c r="E14">
-        <v>0.9809148325024657</v>
+        <v>1.037562324454151</v>
       </c>
       <c r="F14">
-        <v>0.98289936626375</v>
+        <v>1.054702655534051</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037882864755683</v>
+        <v>1.036172558965596</v>
       </c>
       <c r="J14">
-        <v>0.9998253946876154</v>
+        <v>1.045466332627802</v>
       </c>
       <c r="K14">
-        <v>0.9993492342833707</v>
+        <v>1.051913689466186</v>
       </c>
       <c r="L14">
-        <v>0.9962233259321031</v>
+        <v>1.041127360250184</v>
       </c>
       <c r="M14">
-        <v>0.9981685483365011</v>
+        <v>1.058205427749679</v>
       </c>
       <c r="N14">
-        <v>1.003023487422518</v>
+        <v>1.018914292699084</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9699673656758675</v>
+        <v>1.039068987483913</v>
       </c>
       <c r="D15">
-        <v>0.984943474036856</v>
+        <v>1.04853511793748</v>
       </c>
       <c r="E15">
-        <v>0.9816476587507005</v>
+        <v>1.03769084610796</v>
       </c>
       <c r="F15">
-        <v>0.9838180229220633</v>
+        <v>1.054865510407257</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038169393362157</v>
+        <v>1.036206063383633</v>
       </c>
       <c r="J15">
-        <v>1.000486178199824</v>
+        <v>1.045578550565355</v>
       </c>
       <c r="K15">
-        <v>1.000081490006327</v>
+        <v>1.052040802974396</v>
       </c>
       <c r="L15">
-        <v>0.9968502705507457</v>
+        <v>1.041235943918692</v>
       </c>
       <c r="M15">
-        <v>0.9989780331494893</v>
+        <v>1.058348601278647</v>
       </c>
       <c r="N15">
-        <v>1.003250322344874</v>
+        <v>1.018952371416515</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9751158983211115</v>
+        <v>1.039941275584954</v>
       </c>
       <c r="D16">
-        <v>0.9897595104461367</v>
+        <v>1.049389515102448</v>
       </c>
       <c r="E16">
-        <v>0.9858522464248808</v>
+        <v>1.038438488658251</v>
       </c>
       <c r="F16">
-        <v>0.9890874316975342</v>
+        <v>1.055812988474075</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039805652332634</v>
+        <v>1.036400084400199</v>
       </c>
       <c r="J16">
-        <v>1.00427274314751</v>
+        <v>1.046230945991911</v>
       </c>
       <c r="K16">
-        <v>1.004278925262834</v>
+        <v>1.052779978474076</v>
       </c>
       <c r="L16">
-        <v>1.000444284709304</v>
+        <v>1.041867333052662</v>
       </c>
       <c r="M16">
-        <v>1.003619285020076</v>
+        <v>1.059181346506387</v>
       </c>
       <c r="N16">
-        <v>1.004550151490235</v>
+        <v>1.019173687854024</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.97827830886442</v>
+        <v>1.040487896787162</v>
       </c>
       <c r="D17">
-        <v>0.9927203093376191</v>
+        <v>1.049925030536201</v>
       </c>
       <c r="E17">
-        <v>0.9884382578460261</v>
+        <v>1.038907109017116</v>
       </c>
       <c r="F17">
-        <v>0.992327260862896</v>
+        <v>1.056406963286143</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040805246002944</v>
+        <v>1.036520918904818</v>
       </c>
       <c r="J17">
-        <v>1.006597593788593</v>
+        <v>1.046639509946372</v>
       </c>
       <c r="K17">
-        <v>1.006857193307075</v>
+        <v>1.053243049477976</v>
       </c>
       <c r="L17">
-        <v>1.002652089342908</v>
+        <v>1.042262849212082</v>
       </c>
       <c r="M17">
-        <v>1.006471171879319</v>
+        <v>1.059703194242266</v>
       </c>
       <c r="N17">
-        <v>1.005348168373949</v>
+        <v>1.019312234961071</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9800997696521944</v>
+        <v>1.040806538624165</v>
       </c>
       <c r="D18">
-        <v>0.9944265539544205</v>
+        <v>1.050237236388173</v>
       </c>
       <c r="E18">
-        <v>0.9899289016535736</v>
+        <v>1.039180320672679</v>
       </c>
       <c r="F18">
-        <v>0.9941944310168647</v>
+        <v>1.056753293805572</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041378984914592</v>
+        <v>1.036591086757535</v>
       </c>
       <c r="J18">
-        <v>1.007936253057628</v>
+        <v>1.046877579861572</v>
       </c>
       <c r="K18">
-        <v>1.008342190878187</v>
+        <v>1.053512938649149</v>
       </c>
       <c r="L18">
-        <v>1.003923769684325</v>
+        <v>1.042493354891995</v>
       </c>
       <c r="M18">
-        <v>1.008114134311745</v>
+        <v>1.06000739700125</v>
       </c>
       <c r="N18">
-        <v>1.005807647402076</v>
+        <v>1.019392947191139</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9807170158046913</v>
+        <v>1.040915154724091</v>
       </c>
       <c r="D19">
-        <v>0.9950049068614055</v>
+        <v>1.050343665053671</v>
       </c>
       <c r="E19">
-        <v>0.9904342367009499</v>
+        <v>1.039273457455072</v>
       </c>
       <c r="F19">
-        <v>0.9948273545516771</v>
+        <v>1.056871362588746</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04157306769565</v>
+        <v>1.036614959167632</v>
       </c>
       <c r="J19">
-        <v>1.008389820952282</v>
+        <v>1.046958715246746</v>
       </c>
       <c r="K19">
-        <v>1.00884541303982</v>
+        <v>1.05360492804337</v>
       </c>
       <c r="L19">
-        <v>1.004354713753162</v>
+        <v>1.042571918913417</v>
       </c>
       <c r="M19">
-        <v>1.00867094952003</v>
+        <v>1.060111091572004</v>
       </c>
       <c r="N19">
-        <v>1.005963324773631</v>
+        <v>1.019420451072309</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9779414267928155</v>
+        <v>1.040429269526424</v>
       </c>
       <c r="D20">
-        <v>0.9924048093428118</v>
+        <v>1.049867590487852</v>
       </c>
       <c r="E20">
-        <v>0.9881626547862269</v>
+        <v>1.038856843626998</v>
       </c>
       <c r="F20">
-        <v>0.9919820148793181</v>
+        <v>1.05634324838574</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040698969280414</v>
+        <v>1.036507986880627</v>
       </c>
       <c r="J20">
-        <v>1.006349974271942</v>
+        <v>1.046595699610005</v>
       </c>
       <c r="K20">
-        <v>1.006582538835264</v>
+        <v>1.053193388343798</v>
       </c>
       <c r="L20">
-        <v>1.002416892935977</v>
+        <v>1.04222043398633</v>
       </c>
       <c r="M20">
-        <v>1.006167331465054</v>
+        <v>1.059647223811388</v>
       </c>
       <c r="N20">
-        <v>1.005263173906698</v>
+        <v>1.019297380518506</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9686384159034203</v>
+        <v>1.038847324569234</v>
       </c>
       <c r="D21">
-        <v>0.9837012056287904</v>
+        <v>1.048318034143274</v>
       </c>
       <c r="E21">
-        <v>0.980563480703625</v>
+        <v>1.037500891435814</v>
       </c>
       <c r="F21">
-        <v>0.9824588921093691</v>
+        <v>1.054624813269998</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037745351985807</v>
+        <v>1.036156528351101</v>
       </c>
       <c r="J21">
-        <v>0.9995084992451966</v>
+        <v>1.045412685596196</v>
       </c>
       <c r="K21">
-        <v>0.9989980857581406</v>
+        <v>1.051852924664827</v>
       </c>
       <c r="L21">
-        <v>0.9959226834106029</v>
+        <v>1.041075452779388</v>
       </c>
       <c r="M21">
-        <v>0.9977803849371791</v>
+        <v>1.058136988851853</v>
       </c>
       <c r="N21">
-        <v>1.002914702736071</v>
+        <v>1.018896087690689</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9625569131395125</v>
+        <v>1.037850904451635</v>
       </c>
       <c r="D22">
-        <v>0.9780208542663882</v>
+        <v>1.04734236017862</v>
       </c>
       <c r="E22">
-        <v>0.9756079802707714</v>
+        <v>1.036647173934504</v>
       </c>
       <c r="F22">
-        <v>0.9762444940538251</v>
+        <v>1.053543189340241</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035796674625723</v>
+        <v>1.035932721386371</v>
       </c>
       <c r="J22">
-        <v>0.9950332602958514</v>
+        <v>1.044666693309787</v>
       </c>
       <c r="K22">
-        <v>0.994040669042021</v>
+        <v>1.051008169512937</v>
       </c>
       <c r="L22">
-        <v>0.9916786451322912</v>
+        <v>1.040353793340506</v>
       </c>
       <c r="M22">
-        <v>0.9923017124092637</v>
+        <v>1.057185758050193</v>
       </c>
       <c r="N22">
-        <v>1.001378434019526</v>
+        <v>1.018642866916112</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9658041153328563</v>
+        <v>1.038379297538676</v>
       </c>
       <c r="D23">
-        <v>0.9810529473070603</v>
+        <v>1.047859718853121</v>
       </c>
       <c r="E23">
-        <v>0.978252752646776</v>
+        <v>1.037099858979443</v>
       </c>
       <c r="F23">
-        <v>0.9795615973775644</v>
+        <v>1.054116692514405</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036838796635829</v>
+        <v>1.036051634648554</v>
       </c>
       <c r="J23">
-        <v>0.9974230319246595</v>
+        <v>1.045062366724454</v>
       </c>
       <c r="K23">
-        <v>0.9966875689557112</v>
+        <v>1.051456177205308</v>
       </c>
       <c r="L23">
-        <v>0.9939445696802893</v>
+        <v>1.040736527494348</v>
       </c>
       <c r="M23">
-        <v>0.9952266269314686</v>
+        <v>1.057690185501072</v>
       </c>
       <c r="N23">
-        <v>1.002198796667827</v>
+        <v>1.018777191054674</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9780937204943163</v>
+        <v>1.040455761258834</v>
       </c>
       <c r="D24">
-        <v>0.9925474340776147</v>
+        <v>1.04989354564089</v>
       </c>
       <c r="E24">
-        <v>0.9882872425582513</v>
+        <v>1.038879556784883</v>
       </c>
       <c r="F24">
-        <v>0.9921380861711466</v>
+        <v>1.056372038793062</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040747019836721</v>
+        <v>1.036513831272598</v>
       </c>
       <c r="J24">
-        <v>1.006461916423433</v>
+        <v>1.04661549635253</v>
       </c>
       <c r="K24">
-        <v>1.006706701461608</v>
+        <v>1.053215828729026</v>
       </c>
       <c r="L24">
-        <v>1.002523217639059</v>
+        <v>1.042239600195282</v>
       </c>
       <c r="M24">
-        <v>1.00630468698611</v>
+        <v>1.059672515003182</v>
       </c>
       <c r="N24">
-        <v>1.005301597700864</v>
+        <v>1.019304092910657</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9914568599803416</v>
+        <v>1.042857833056588</v>
       </c>
       <c r="D25">
-        <v>1.005080282839834</v>
+        <v>1.052247777500198</v>
       </c>
       <c r="E25">
-        <v>0.9992425809518444</v>
+        <v>1.04093984560758</v>
       </c>
       <c r="F25">
-        <v>1.005855645819782</v>
+        <v>1.058984366544906</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04492002339496</v>
+        <v>1.037037917539802</v>
       </c>
       <c r="J25">
-        <v>1.016275195535752</v>
+        <v>1.048408477618086</v>
       </c>
       <c r="K25">
-        <v>1.017600242566785</v>
+        <v>1.055249497689792</v>
       </c>
       <c r="L25">
-        <v>1.011852666265344</v>
+        <v>1.043976308947873</v>
       </c>
       <c r="M25">
-        <v>1.01836373546402</v>
+        <v>1.061965773232145</v>
       </c>
       <c r="N25">
-        <v>1.00866930163287</v>
+        <v>1.019911617976991</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_163/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_163/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044767888252353</v>
+        <v>1.001496346659179</v>
       </c>
       <c r="D2">
-        <v>1.054120968337501</v>
+        <v>1.014519842784975</v>
       </c>
       <c r="E2">
-        <v>1.04257931755384</v>
+        <v>1.00750337913965</v>
       </c>
       <c r="F2">
-        <v>1.061064280785392</v>
+        <v>1.016193025281934</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037446097882198</v>
+        <v>1.047990471890619</v>
       </c>
       <c r="J2">
-        <v>1.049831207851448</v>
+        <v>1.023632394182648</v>
       </c>
       <c r="K2">
-        <v>1.056865052911502</v>
+        <v>1.025780532483498</v>
       </c>
       <c r="L2">
-        <v>1.045355606286391</v>
+        <v>1.018859160442732</v>
       </c>
       <c r="M2">
-        <v>1.063789357252356</v>
+        <v>1.027431282537265</v>
       </c>
       <c r="N2">
-        <v>1.020393081036093</v>
+        <v>1.011192713359812</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046151503999267</v>
+        <v>1.008470899421231</v>
       </c>
       <c r="D3">
-        <v>1.055478553076081</v>
+        <v>1.021089942698199</v>
       </c>
       <c r="E3">
-        <v>1.043767602474577</v>
+        <v>1.013257594818008</v>
       </c>
       <c r="F3">
-        <v>1.062572484014418</v>
+        <v>1.023391868448654</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037736802806428</v>
+        <v>1.050084597012518</v>
       </c>
       <c r="J3">
-        <v>1.05086006696713</v>
+        <v>1.028733273010393</v>
       </c>
       <c r="K3">
-        <v>1.058034426019085</v>
+        <v>1.031459901945322</v>
       </c>
       <c r="L3">
-        <v>1.046353763177557</v>
+        <v>1.023723606625411</v>
       </c>
       <c r="M3">
-        <v>1.065110360046207</v>
+        <v>1.03373394501199</v>
       </c>
       <c r="N3">
-        <v>1.020740899390178</v>
+        <v>1.012941118629952</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047045332084307</v>
+        <v>1.012850728754064</v>
       </c>
       <c r="D4">
-        <v>1.056355873264885</v>
+        <v>1.025221068278323</v>
       </c>
       <c r="E4">
-        <v>1.044535552590347</v>
+        <v>1.016877565158665</v>
       </c>
       <c r="F4">
-        <v>1.063547509923694</v>
+        <v>1.027920306058623</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03792229435905</v>
+        <v>1.051381133268461</v>
       </c>
       <c r="J4">
-        <v>1.051523908247096</v>
+        <v>1.031931327612247</v>
       </c>
       <c r="K4">
-        <v>1.058789427034369</v>
+        <v>1.035024336101698</v>
       </c>
       <c r="L4">
-        <v>1.046998121678641</v>
+        <v>1.026776472509364</v>
       </c>
       <c r="M4">
-        <v>1.065963749451744</v>
+        <v>1.037693042772081</v>
       </c>
       <c r="N4">
-        <v>1.020965153400273</v>
+        <v>1.014036690745959</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0474207526779</v>
+        <v>1.014661825304785</v>
       </c>
       <c r="D5">
-        <v>1.056724433694723</v>
+        <v>1.026930534790656</v>
       </c>
       <c r="E5">
-        <v>1.044858175495398</v>
+        <v>1.018375925195829</v>
       </c>
       <c r="F5">
-        <v>1.063957205358897</v>
+        <v>1.029794681455414</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037999650508022</v>
+        <v>1.051912744574889</v>
       </c>
       <c r="J5">
-        <v>1.051802536453063</v>
+        <v>1.033252454057896</v>
       </c>
       <c r="K5">
-        <v>1.059106436224544</v>
+        <v>1.036497710966413</v>
       </c>
       <c r="L5">
-        <v>1.047268650847432</v>
+        <v>1.028038344502147</v>
       </c>
       <c r="M5">
-        <v>1.066322187288242</v>
+        <v>1.039330403798291</v>
       </c>
       <c r="N5">
-        <v>1.021059237722066</v>
+        <v>1.014489115440317</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047483767397329</v>
+        <v>1.014964193225221</v>
       </c>
       <c r="D6">
-        <v>1.056786301220221</v>
+        <v>1.027216004944097</v>
       </c>
       <c r="E6">
-        <v>1.044912332321571</v>
+        <v>1.01862616507454</v>
       </c>
       <c r="F6">
-        <v>1.064025983144893</v>
+        <v>1.030107720550345</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038012602361941</v>
+        <v>1.052001230841612</v>
       </c>
       <c r="J6">
-        <v>1.051849293044342</v>
+        <v>1.033472942138956</v>
       </c>
       <c r="K6">
-        <v>1.059159640534407</v>
+        <v>1.036743661411797</v>
       </c>
       <c r="L6">
-        <v>1.047314052932614</v>
+        <v>1.028248985733623</v>
       </c>
       <c r="M6">
-        <v>1.066382351547833</v>
+        <v>1.039603778905009</v>
       </c>
       <c r="N6">
-        <v>1.021075023668723</v>
+        <v>1.014564612649743</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047050349820176</v>
+        <v>1.012875045172291</v>
       </c>
       <c r="D7">
-        <v>1.056360799022344</v>
+        <v>1.025244015453931</v>
       </c>
       <c r="E7">
-        <v>1.044539864365936</v>
+        <v>1.016897676947597</v>
       </c>
       <c r="F7">
-        <v>1.063552985094298</v>
+        <v>1.027945464888107</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037923330447997</v>
+        <v>1.051388288845077</v>
       </c>
       <c r="J7">
-        <v>1.051527633056672</v>
+        <v>1.031949070725386</v>
       </c>
       <c r="K7">
-        <v>1.058793664466239</v>
+        <v>1.03504412039367</v>
       </c>
       <c r="L7">
-        <v>1.047001737909245</v>
+        <v>1.026793416962156</v>
       </c>
       <c r="M7">
-        <v>1.065968540194464</v>
+        <v>1.037715025663595</v>
       </c>
       <c r="N7">
-        <v>1.020966411312659</v>
+        <v>1.014042767590317</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045235794213956</v>
+        <v>1.003882071041794</v>
       </c>
       <c r="D8">
-        <v>1.054580007047942</v>
+        <v>1.016766068958923</v>
       </c>
       <c r="E8">
-        <v>1.042981103082239</v>
+        <v>1.009470253005587</v>
       </c>
       <c r="F8">
-        <v>1.06157417134279</v>
+        <v>1.018653811277231</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037544884995931</v>
+        <v>1.048710652316692</v>
       </c>
       <c r="J8">
-        <v>1.050179311327046</v>
+        <v>1.025378258877929</v>
       </c>
       <c r="K8">
-        <v>1.057260594817613</v>
+        <v>1.027723623185599</v>
       </c>
       <c r="L8">
-        <v>1.045693254181241</v>
+        <v>1.020523453727933</v>
       </c>
       <c r="M8">
-        <v>1.064236086786222</v>
+        <v>1.029586896834815</v>
       </c>
       <c r="N8">
-        <v>1.020510795911273</v>
+        <v>1.011791256317802</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042026847120366</v>
+        <v>0.9869310011474681</v>
       </c>
       <c r="D9">
-        <v>1.051433157993148</v>
+        <v>1.000831601398035</v>
       </c>
       <c r="E9">
-        <v>1.040226911068205</v>
+        <v>0.9955270523563287</v>
       </c>
       <c r="F9">
-        <v>1.05808022916023</v>
+        <v>1.001204562925385</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036857936874992</v>
+        <v>1.043516787102196</v>
       </c>
       <c r="J9">
-        <v>1.047788666714661</v>
+        <v>1.012953853030986</v>
       </c>
       <c r="K9">
-        <v>1.054546199300147</v>
+        <v>1.013911200842766</v>
       </c>
       <c r="L9">
-        <v>1.043375761493396</v>
+        <v>1.008693119288917</v>
       </c>
       <c r="M9">
-        <v>1.061172421692568</v>
+        <v>1.014278127120583</v>
       </c>
       <c r="N9">
-        <v>1.019701698169574</v>
+        <v>1.007529671490625</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03987947584111</v>
+        <v>0.9747553114410152</v>
       </c>
       <c r="D10">
-        <v>1.049328976094148</v>
+        <v>0.9894220385936273</v>
       </c>
       <c r="E10">
-        <v>1.038385512790063</v>
+        <v>0.9855575465389341</v>
       </c>
       <c r="F10">
-        <v>1.055745846531588</v>
+        <v>0.9887181721148046</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036386386563624</v>
+        <v>1.039691404767558</v>
       </c>
       <c r="J10">
-        <v>1.046184741939964</v>
+        <v>1.004007606165743</v>
       </c>
       <c r="K10">
-        <v>1.052727618134152</v>
+        <v>1.003984944497114</v>
       </c>
       <c r="L10">
-        <v>1.041822609804244</v>
+        <v>1.000192553714494</v>
       </c>
       <c r="M10">
-        <v>1.059122347887987</v>
+        <v>1.003294155556254</v>
       </c>
       <c r="N10">
-        <v>1.019158017134528</v>
+        <v>1.004459139261116</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038947643925342</v>
+        <v>0.969240922367425</v>
       </c>
       <c r="D11">
-        <v>1.048416279463728</v>
+        <v>0.9842643697897111</v>
       </c>
       <c r="E11">
-        <v>1.037586858709111</v>
+        <v>0.9810549579175819</v>
       </c>
       <c r="F11">
-        <v>1.054733743433724</v>
+        <v>0.9830750304806504</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036178958232003</v>
+        <v>1.037937682574094</v>
       </c>
       <c r="J11">
-        <v>1.045487756134126</v>
+        <v>0.9999517630654071</v>
       </c>
       <c r="K11">
-        <v>1.051937955977995</v>
+        <v>0.9994892659442669</v>
       </c>
       <c r="L11">
-        <v>1.041148089466714</v>
+        <v>0.9963432175775504</v>
       </c>
       <c r="M11">
-        <v>1.058232759494989</v>
+        <v>0.9983233444280902</v>
       </c>
       <c r="N11">
-        <v>1.018921562530947</v>
+        <v>1.00306686744373</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038601211549582</v>
+        <v>0.9671528277520133</v>
       </c>
       <c r="D12">
-        <v>1.048077020768049</v>
+        <v>0.9823129315550666</v>
       </c>
       <c r="E12">
-        <v>1.037290000114343</v>
+        <v>0.9793520595723965</v>
       </c>
       <c r="F12">
-        <v>1.054357600721744</v>
+        <v>0.9809400536519979</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036101420953783</v>
+        <v>1.037270549368108</v>
       </c>
       <c r="J12">
-        <v>1.045228487463503</v>
+        <v>0.9984154635148559</v>
       </c>
       <c r="K12">
-        <v>1.051644303333829</v>
+        <v>0.9977870181799661</v>
       </c>
       <c r="L12">
-        <v>1.040897238048394</v>
+        <v>0.9948858289070769</v>
       </c>
       <c r="M12">
-        <v>1.057902035885969</v>
+        <v>0.9964417545906507</v>
       </c>
       <c r="N12">
-        <v>1.018833575270203</v>
+        <v>1.002539481881108</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038675536546231</v>
+        <v>0.9676025920581748</v>
       </c>
       <c r="D13">
-        <v>1.048149803987537</v>
+        <v>0.982733187524423</v>
       </c>
       <c r="E13">
-        <v>1.037353686555459</v>
+        <v>0.9797187585771022</v>
       </c>
       <c r="F13">
-        <v>1.054438293893438</v>
+        <v>0.9813998303943209</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036118075127798</v>
+        <v>1.037414382451515</v>
       </c>
       <c r="J13">
-        <v>1.045284118621626</v>
+        <v>0.9987463949206854</v>
       </c>
       <c r="K13">
-        <v>1.051707308163953</v>
+        <v>0.9981536668310089</v>
       </c>
       <c r="L13">
-        <v>1.040951060386518</v>
+        <v>0.99519973084485</v>
       </c>
       <c r="M13">
-        <v>1.057972990489985</v>
+        <v>0.9968470069383247</v>
       </c>
       <c r="N13">
-        <v>1.018852455990273</v>
+        <v>1.002653085157801</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038919014052146</v>
+        <v>0.9690691531405876</v>
       </c>
       <c r="D14">
-        <v>1.048388241218606</v>
+        <v>0.9841038093433681</v>
       </c>
       <c r="E14">
-        <v>1.037562324454151</v>
+        <v>0.9809148325024656</v>
       </c>
       <c r="F14">
-        <v>1.054702655534051</v>
+        <v>0.9828993662637499</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036172558965596</v>
+        <v>1.037882864755683</v>
       </c>
       <c r="J14">
-        <v>1.045466332627802</v>
+        <v>0.9998253946876152</v>
       </c>
       <c r="K14">
-        <v>1.051913689466186</v>
+        <v>0.9993492342833705</v>
       </c>
       <c r="L14">
-        <v>1.041127360250184</v>
+        <v>0.9962233259321031</v>
       </c>
       <c r="M14">
-        <v>1.058205427749679</v>
+        <v>0.9981685483365011</v>
       </c>
       <c r="N14">
-        <v>1.018914292699084</v>
+        <v>1.003023487422518</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039068987483913</v>
+        <v>0.9699673656758671</v>
       </c>
       <c r="D15">
-        <v>1.04853511793748</v>
+        <v>0.9849434740368553</v>
       </c>
       <c r="E15">
-        <v>1.03769084610796</v>
+        <v>0.9816476587507003</v>
       </c>
       <c r="F15">
-        <v>1.054865510407257</v>
+        <v>0.9838180229220627</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036206063383633</v>
+        <v>1.038169393362157</v>
       </c>
       <c r="J15">
-        <v>1.045578550565355</v>
+        <v>1.000486178199823</v>
       </c>
       <c r="K15">
-        <v>1.052040802974396</v>
+        <v>1.000081490006326</v>
       </c>
       <c r="L15">
-        <v>1.041235943918692</v>
+        <v>0.9968502705507455</v>
       </c>
       <c r="M15">
-        <v>1.058348601278647</v>
+        <v>0.9989780331494887</v>
       </c>
       <c r="N15">
-        <v>1.018952371416515</v>
+        <v>1.003250322344874</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039941275584954</v>
+        <v>0.9751158983211102</v>
       </c>
       <c r="D16">
-        <v>1.049389515102448</v>
+        <v>0.9897595104461357</v>
       </c>
       <c r="E16">
-        <v>1.038438488658251</v>
+        <v>0.9858522464248795</v>
       </c>
       <c r="F16">
-        <v>1.055812988474075</v>
+        <v>0.989087431697533</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036400084400199</v>
+        <v>1.039805652332634</v>
       </c>
       <c r="J16">
-        <v>1.046230945991911</v>
+        <v>1.004272743147509</v>
       </c>
       <c r="K16">
-        <v>1.052779978474076</v>
+        <v>1.004278925262833</v>
       </c>
       <c r="L16">
-        <v>1.041867333052662</v>
+        <v>1.000444284709303</v>
       </c>
       <c r="M16">
-        <v>1.059181346506387</v>
+        <v>1.003619285020074</v>
       </c>
       <c r="N16">
-        <v>1.019173687854024</v>
+        <v>1.004550151490235</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040487896787162</v>
+        <v>0.9782783088644185</v>
       </c>
       <c r="D17">
-        <v>1.049925030536201</v>
+        <v>0.9927203093376177</v>
       </c>
       <c r="E17">
-        <v>1.038907109017116</v>
+        <v>0.9884382578460247</v>
       </c>
       <c r="F17">
-        <v>1.056406963286143</v>
+        <v>0.9923272608628941</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036520918904818</v>
+        <v>1.040805246002943</v>
       </c>
       <c r="J17">
-        <v>1.046639509946372</v>
+        <v>1.006597593788592</v>
       </c>
       <c r="K17">
-        <v>1.053243049477976</v>
+        <v>1.006857193307074</v>
       </c>
       <c r="L17">
-        <v>1.042262849212082</v>
+        <v>1.002652089342907</v>
       </c>
       <c r="M17">
-        <v>1.059703194242266</v>
+        <v>1.006471171879318</v>
       </c>
       <c r="N17">
-        <v>1.019312234961071</v>
+        <v>1.005348168373948</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040806538624165</v>
+        <v>0.9800997696521937</v>
       </c>
       <c r="D18">
-        <v>1.050237236388173</v>
+        <v>0.9944265539544198</v>
       </c>
       <c r="E18">
-        <v>1.039180320672679</v>
+        <v>0.9899289016535728</v>
       </c>
       <c r="F18">
-        <v>1.056753293805572</v>
+        <v>0.9941944310168639</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036591086757535</v>
+        <v>1.041378984914591</v>
       </c>
       <c r="J18">
-        <v>1.046877579861572</v>
+        <v>1.007936253057628</v>
       </c>
       <c r="K18">
-        <v>1.053512938649149</v>
+        <v>1.008342190878186</v>
       </c>
       <c r="L18">
-        <v>1.042493354891995</v>
+        <v>1.003923769684324</v>
       </c>
       <c r="M18">
-        <v>1.06000739700125</v>
+        <v>1.008114134311745</v>
       </c>
       <c r="N18">
-        <v>1.019392947191139</v>
+        <v>1.005807647402076</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040915154724091</v>
+        <v>0.9807170158046898</v>
       </c>
       <c r="D19">
-        <v>1.050343665053671</v>
+        <v>0.9950049068614039</v>
       </c>
       <c r="E19">
-        <v>1.039273457455072</v>
+        <v>0.9904342367009485</v>
       </c>
       <c r="F19">
-        <v>1.056871362588746</v>
+        <v>0.9948273545516753</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036614959167632</v>
+        <v>1.04157306769565</v>
       </c>
       <c r="J19">
-        <v>1.046958715246746</v>
+        <v>1.008389820952281</v>
       </c>
       <c r="K19">
-        <v>1.05360492804337</v>
+        <v>1.008845413039818</v>
       </c>
       <c r="L19">
-        <v>1.042571918913417</v>
+        <v>1.004354713753161</v>
       </c>
       <c r="M19">
-        <v>1.060111091572004</v>
+        <v>1.008670949520028</v>
       </c>
       <c r="N19">
-        <v>1.019420451072309</v>
+        <v>1.005963324773631</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040429269526424</v>
+        <v>0.977941426792815</v>
       </c>
       <c r="D20">
-        <v>1.049867590487852</v>
+        <v>0.9924048093428112</v>
       </c>
       <c r="E20">
-        <v>1.038856843626998</v>
+        <v>0.9881626547862263</v>
       </c>
       <c r="F20">
-        <v>1.05634324838574</v>
+        <v>0.9919820148793176</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036507986880627</v>
+        <v>1.040698969280414</v>
       </c>
       <c r="J20">
-        <v>1.046595699610005</v>
+        <v>1.006349974271942</v>
       </c>
       <c r="K20">
-        <v>1.053193388343798</v>
+        <v>1.006582538835264</v>
       </c>
       <c r="L20">
-        <v>1.04222043398633</v>
+        <v>1.002416892935977</v>
       </c>
       <c r="M20">
-        <v>1.059647223811388</v>
+        <v>1.006167331465053</v>
       </c>
       <c r="N20">
-        <v>1.019297380518506</v>
+        <v>1.005263173906698</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038847324569234</v>
+        <v>0.9686384159034199</v>
       </c>
       <c r="D21">
-        <v>1.048318034143274</v>
+        <v>0.98370120562879</v>
       </c>
       <c r="E21">
-        <v>1.037500891435814</v>
+        <v>0.9805634807036249</v>
       </c>
       <c r="F21">
-        <v>1.054624813269998</v>
+        <v>0.9824588921093689</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036156528351101</v>
+        <v>1.037745351985806</v>
       </c>
       <c r="J21">
-        <v>1.045412685596196</v>
+        <v>0.9995084992451962</v>
       </c>
       <c r="K21">
-        <v>1.051852924664827</v>
+        <v>0.9989980857581402</v>
       </c>
       <c r="L21">
-        <v>1.041075452779388</v>
+        <v>0.9959226834106026</v>
       </c>
       <c r="M21">
-        <v>1.058136988851853</v>
+        <v>0.9977803849371789</v>
       </c>
       <c r="N21">
-        <v>1.018896087690689</v>
+        <v>1.002914702736071</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037850904451635</v>
+        <v>0.9625569131395135</v>
       </c>
       <c r="D22">
-        <v>1.04734236017862</v>
+        <v>0.9780208542663894</v>
       </c>
       <c r="E22">
-        <v>1.036647173934504</v>
+        <v>0.9756079802707724</v>
       </c>
       <c r="F22">
-        <v>1.053543189340241</v>
+        <v>0.9762444940538264</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035932721386371</v>
+        <v>1.035796674625724</v>
       </c>
       <c r="J22">
-        <v>1.044666693309787</v>
+        <v>0.9950332602958525</v>
       </c>
       <c r="K22">
-        <v>1.051008169512937</v>
+        <v>0.9940406690420224</v>
       </c>
       <c r="L22">
-        <v>1.040353793340506</v>
+        <v>0.991678645132292</v>
       </c>
       <c r="M22">
-        <v>1.057185758050193</v>
+        <v>0.9923017124092649</v>
       </c>
       <c r="N22">
-        <v>1.018642866916112</v>
+        <v>1.001378434019526</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038379297538676</v>
+        <v>0.9658041153328568</v>
       </c>
       <c r="D23">
-        <v>1.047859718853121</v>
+        <v>0.9810529473070608</v>
       </c>
       <c r="E23">
-        <v>1.037099858979443</v>
+        <v>0.9782527526467766</v>
       </c>
       <c r="F23">
-        <v>1.054116692514405</v>
+        <v>0.979561597377565</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036051634648554</v>
+        <v>1.03683879663583</v>
       </c>
       <c r="J23">
-        <v>1.045062366724454</v>
+        <v>0.9974230319246599</v>
       </c>
       <c r="K23">
-        <v>1.051456177205308</v>
+        <v>0.9966875689557118</v>
       </c>
       <c r="L23">
-        <v>1.040736527494348</v>
+        <v>0.99394456968029</v>
       </c>
       <c r="M23">
-        <v>1.057690185501072</v>
+        <v>0.9952266269314695</v>
       </c>
       <c r="N23">
-        <v>1.018777191054674</v>
+        <v>1.002198796667827</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040455761258834</v>
+        <v>0.9780937204943164</v>
       </c>
       <c r="D24">
-        <v>1.04989354564089</v>
+        <v>0.9925474340776148</v>
       </c>
       <c r="E24">
-        <v>1.038879556784883</v>
+        <v>0.9882872425582515</v>
       </c>
       <c r="F24">
-        <v>1.056372038793062</v>
+        <v>0.992138086171147</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036513831272598</v>
+        <v>1.040747019836722</v>
       </c>
       <c r="J24">
-        <v>1.04661549635253</v>
+        <v>1.006461916423433</v>
       </c>
       <c r="K24">
-        <v>1.053215828729026</v>
+        <v>1.006706701461608</v>
       </c>
       <c r="L24">
-        <v>1.042239600195282</v>
+        <v>1.002523217639059</v>
       </c>
       <c r="M24">
-        <v>1.059672515003182</v>
+        <v>1.00630468698611</v>
       </c>
       <c r="N24">
-        <v>1.019304092910657</v>
+        <v>1.005301597700864</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042857833056588</v>
+        <v>0.9914568599803426</v>
       </c>
       <c r="D25">
-        <v>1.052247777500198</v>
+        <v>1.005080282839835</v>
       </c>
       <c r="E25">
-        <v>1.04093984560758</v>
+        <v>0.9992425809518451</v>
       </c>
       <c r="F25">
-        <v>1.058984366544906</v>
+        <v>1.005855645819783</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037037917539802</v>
+        <v>1.044920023394961</v>
       </c>
       <c r="J25">
-        <v>1.048408477618086</v>
+        <v>1.016275195535753</v>
       </c>
       <c r="K25">
-        <v>1.055249497689792</v>
+        <v>1.017600242566787</v>
       </c>
       <c r="L25">
-        <v>1.043976308947873</v>
+        <v>1.011852666265345</v>
       </c>
       <c r="M25">
-        <v>1.061965773232145</v>
+        <v>1.018363735464022</v>
       </c>
       <c r="N25">
-        <v>1.019911617976991</v>
+        <v>1.008669301632871</v>
       </c>
     </row>
   </sheetData>
